--- a/data/pca/factorExposure/factorExposure_2016-10-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01625428297370704</v>
+        <v>0.01154952429710875</v>
       </c>
       <c r="C2">
-        <v>-0.04820333506140666</v>
+        <v>0.04168199845086857</v>
       </c>
       <c r="D2">
-        <v>-0.02998845922901507</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06283882382884019</v>
+      </c>
+      <c r="E2">
+        <v>-0.05001668213273068</v>
+      </c>
+      <c r="F2">
+        <v>0.08667574282307852</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.05514987073720908</v>
+        <v>0.03120887153982176</v>
       </c>
       <c r="C3">
-        <v>-0.09470193693884642</v>
+        <v>0.0809732804377713</v>
       </c>
       <c r="D3">
-        <v>-0.05748979758036176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.1006592755846277</v>
+      </c>
+      <c r="E3">
+        <v>-0.06834494797375214</v>
+      </c>
+      <c r="F3">
+        <v>0.02782167814728269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06473222829222484</v>
+        <v>0.05441385854430789</v>
       </c>
       <c r="C4">
-        <v>-0.05875765881183328</v>
+        <v>0.06426852808859074</v>
       </c>
       <c r="D4">
-        <v>-0.02146051958277104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05953110329141204</v>
+      </c>
+      <c r="E4">
+        <v>-0.04617379505211883</v>
+      </c>
+      <c r="F4">
+        <v>0.07934758505440373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.02956332324927986</v>
+        <v>0.03253864727751983</v>
       </c>
       <c r="C6">
-        <v>-0.04210727654372407</v>
+        <v>0.03692226243669709</v>
       </c>
       <c r="D6">
-        <v>-0.02669970119095005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06652715175741288</v>
+      </c>
+      <c r="E6">
+        <v>-0.05740035195585629</v>
+      </c>
+      <c r="F6">
+        <v>0.06976447870893183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.02513472635978846</v>
+        <v>0.01970503252502122</v>
       </c>
       <c r="C7">
-        <v>-0.0378078226134702</v>
+        <v>0.03577939180023668</v>
       </c>
       <c r="D7">
-        <v>0.003825781707569178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03923054187331295</v>
+      </c>
+      <c r="E7">
+        <v>-0.03232428568491645</v>
+      </c>
+      <c r="F7">
+        <v>0.1110244523240416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.002686497769277589</v>
+        <v>0.003078041053301061</v>
       </c>
       <c r="C8">
-        <v>-0.0107213097671392</v>
+        <v>0.02435454536140263</v>
       </c>
       <c r="D8">
-        <v>-0.01425953876011556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03632207839164574</v>
+      </c>
+      <c r="E8">
+        <v>-0.03835027411368952</v>
+      </c>
+      <c r="F8">
+        <v>0.05483421941410074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02975510606519209</v>
+        <v>0.03396679537869404</v>
       </c>
       <c r="C9">
-        <v>-0.04252862506908461</v>
+        <v>0.05014202470194266</v>
       </c>
       <c r="D9">
-        <v>-0.01703630997056085</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04468817029361706</v>
+      </c>
+      <c r="E9">
+        <v>-0.03792371601368102</v>
+      </c>
+      <c r="F9">
+        <v>0.0877696488417722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07621520532790693</v>
+        <v>0.1050092333678667</v>
       </c>
       <c r="C10">
-        <v>0.1944221473231267</v>
+        <v>-0.1866282564195877</v>
       </c>
       <c r="D10">
-        <v>-0.009581237449897079</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.000931648501413766</v>
+      </c>
+      <c r="E10">
+        <v>-0.04452329561831217</v>
+      </c>
+      <c r="F10">
+        <v>0.03902043573102824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.04054880255743777</v>
+        <v>0.03408708501225922</v>
       </c>
       <c r="C11">
-        <v>-0.05377062940949048</v>
+        <v>0.05175795633641712</v>
       </c>
       <c r="D11">
-        <v>-0.0007029514190938774</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03301945107318913</v>
+      </c>
+      <c r="E11">
+        <v>-0.004836669750809415</v>
+      </c>
+      <c r="F11">
+        <v>0.06529910251829263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03610397321301156</v>
+        <v>0.03492947723907246</v>
       </c>
       <c r="C12">
-        <v>-0.04321500198379295</v>
+        <v>0.04647706621530237</v>
       </c>
       <c r="D12">
-        <v>-0.00124599962001804</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02575891197641731</v>
+      </c>
+      <c r="E12">
+        <v>-0.01366473189024295</v>
+      </c>
+      <c r="F12">
+        <v>0.06673593553768156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01223280581478011</v>
+        <v>0.01049300841975833</v>
       </c>
       <c r="C13">
-        <v>-0.04279307270495459</v>
+        <v>0.04107448837278688</v>
       </c>
       <c r="D13">
-        <v>-0.02036433620880921</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06648512188523946</v>
+      </c>
+      <c r="E13">
+        <v>-0.06406606325587655</v>
+      </c>
+      <c r="F13">
+        <v>0.1175836825483167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.009079897867468505</v>
+        <v>0.00465791448942684</v>
       </c>
       <c r="C14">
-        <v>-0.03132252690133886</v>
+        <v>0.02872946602333258</v>
       </c>
       <c r="D14">
-        <v>0.01440284107815735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.030317930136913</v>
+      </c>
+      <c r="E14">
+        <v>-0.02520640935638351</v>
+      </c>
+      <c r="F14">
+        <v>0.09777974912781659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.00167885609858396</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.001804605705554171</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.001702364585633332</v>
+      </c>
+      <c r="E15">
+        <v>-0.0001433916026279785</v>
+      </c>
+      <c r="F15">
+        <v>0.0008546146221052675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03570119119953171</v>
+        <v>0.03204155304181085</v>
       </c>
       <c r="C16">
-        <v>-0.03831827217049893</v>
+        <v>0.04446129614832207</v>
       </c>
       <c r="D16">
-        <v>-0.006220907739112122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02845063165388981</v>
+      </c>
+      <c r="E16">
+        <v>-0.0188535135677936</v>
+      </c>
+      <c r="F16">
+        <v>0.0691687775392113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02744526387156771</v>
+        <v>0.01525778608283445</v>
       </c>
       <c r="C19">
-        <v>-0.05790548770137987</v>
+        <v>0.04984960039568082</v>
       </c>
       <c r="D19">
-        <v>-0.07097135930563248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1047559822119569</v>
+      </c>
+      <c r="E19">
+        <v>-0.08058549043366324</v>
+      </c>
+      <c r="F19">
+        <v>0.1024413281801187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01541038953025363</v>
+        <v>0.01231071586933374</v>
       </c>
       <c r="C20">
-        <v>-0.04333629655490401</v>
+        <v>0.03941707015182221</v>
       </c>
       <c r="D20">
-        <v>-0.01858542335268976</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04243386370559532</v>
+      </c>
+      <c r="E20">
+        <v>-0.05515700774144536</v>
+      </c>
+      <c r="F20">
+        <v>0.09112453207952145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01064316215230078</v>
+        <v>0.004962255461847293</v>
       </c>
       <c r="C21">
-        <v>-0.04759148767338287</v>
+        <v>0.04168231301286403</v>
       </c>
       <c r="D21">
-        <v>-0.04089847661957338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07241351147943856</v>
+      </c>
+      <c r="E21">
+        <v>-0.06614830741842281</v>
+      </c>
+      <c r="F21">
+        <v>0.132492173388249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001586181062481767</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02200954996651257</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03158649843751866</v>
+      </c>
+      <c r="E22">
+        <v>-0.01460873349868442</v>
+      </c>
+      <c r="F22">
+        <v>0.01108711602130701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001537251669091366</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02213919502075339</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03127085085079494</v>
+      </c>
+      <c r="E23">
+        <v>-0.01489338096406843</v>
+      </c>
+      <c r="F23">
+        <v>0.01089231423811205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.03027490315077383</v>
+        <v>0.03016078209324259</v>
       </c>
       <c r="C24">
-        <v>-0.04520374667088393</v>
+        <v>0.05211339976212313</v>
       </c>
       <c r="D24">
-        <v>-0.001803876870472239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.026487155190375</v>
+      </c>
+      <c r="E24">
+        <v>-0.0152767850559711</v>
+      </c>
+      <c r="F24">
+        <v>0.07614545679333701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04710199433453228</v>
+        <v>0.04073600687539203</v>
       </c>
       <c r="C25">
-        <v>-0.05586406746883819</v>
+        <v>0.05802218297454902</v>
       </c>
       <c r="D25">
-        <v>0.01009482924489611</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02388708312151178</v>
+      </c>
+      <c r="E25">
+        <v>-0.01175973995130735</v>
+      </c>
+      <c r="F25">
+        <v>0.07840179250617131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01221364548952994</v>
+        <v>0.01269351492036072</v>
       </c>
       <c r="C26">
-        <v>-0.01539362637052526</v>
+        <v>0.01522372664500636</v>
       </c>
       <c r="D26">
-        <v>-0.007023422276368737</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0262069423473178</v>
+      </c>
+      <c r="E26">
+        <v>-0.02648925845454872</v>
+      </c>
+      <c r="F26">
+        <v>0.07524872777238632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.08811318469189941</v>
+        <v>0.1398229158773298</v>
       </c>
       <c r="C28">
-        <v>0.2203360330425014</v>
+        <v>-0.2367187912192763</v>
       </c>
       <c r="D28">
-        <v>-0.00234859249881398</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0159119124762427</v>
+      </c>
+      <c r="E28">
+        <v>-0.04376467868066018</v>
+      </c>
+      <c r="F28">
+        <v>0.05307520375809753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01373306879523812</v>
+        <v>0.005849503910608246</v>
       </c>
       <c r="C29">
-        <v>-0.02479490816246723</v>
+        <v>0.02564429633801358</v>
       </c>
       <c r="D29">
-        <v>0.01329006210838803</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02191361218975272</v>
+      </c>
+      <c r="E29">
+        <v>-0.02826267141510689</v>
+      </c>
+      <c r="F29">
+        <v>0.08819269155311424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05298352018181492</v>
+        <v>0.03800836512199238</v>
       </c>
       <c r="C30">
-        <v>-0.06382898199125936</v>
+        <v>0.06208098557880365</v>
       </c>
       <c r="D30">
-        <v>-0.04471854024721033</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1080305726349794</v>
+      </c>
+      <c r="E30">
+        <v>-0.03326211841857538</v>
+      </c>
+      <c r="F30">
+        <v>0.1008652099023661</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04270397131897707</v>
+        <v>0.05217780296145773</v>
       </c>
       <c r="C31">
-        <v>-0.03144537477274493</v>
+        <v>0.05077747483518735</v>
       </c>
       <c r="D31">
-        <v>0.01392167284881455</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.00347514682093496</v>
+      </c>
+      <c r="E31">
+        <v>-0.0443231439847749</v>
+      </c>
+      <c r="F31">
+        <v>0.08235415191389357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.001654108359232238</v>
+        <v>0.002793931831676292</v>
       </c>
       <c r="C32">
-        <v>-0.04712448595423629</v>
+        <v>0.02944092036024457</v>
       </c>
       <c r="D32">
-        <v>-0.02518889552130963</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0502709588740619</v>
+      </c>
+      <c r="E32">
+        <v>-0.02040216574173017</v>
+      </c>
+      <c r="F32">
+        <v>0.07136547821271472</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02776800865312967</v>
+        <v>0.02271037912233612</v>
       </c>
       <c r="C33">
-        <v>-0.05975422995899611</v>
+        <v>0.05282548642067644</v>
       </c>
       <c r="D33">
-        <v>-0.02531613445363175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08191189803678936</v>
+      </c>
+      <c r="E33">
+        <v>-0.04799871407243468</v>
+      </c>
+      <c r="F33">
+        <v>0.1287727376245958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.05052007097025268</v>
+        <v>0.03954679476108319</v>
       </c>
       <c r="C34">
-        <v>-0.05391132361801027</v>
+        <v>0.0634842594482411</v>
       </c>
       <c r="D34">
-        <v>0.008410456871285272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03338054811539062</v>
+      </c>
+      <c r="E34">
+        <v>0.005644615353837755</v>
+      </c>
+      <c r="F34">
+        <v>0.07430638412576808</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.009501611066193851</v>
+        <v>0.01338414348979611</v>
       </c>
       <c r="C36">
-        <v>-0.01156986004506135</v>
+        <v>0.01108017998792617</v>
       </c>
       <c r="D36">
-        <v>-0.005621465496349649</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02831978506473716</v>
+      </c>
+      <c r="E36">
+        <v>-0.03356404898330234</v>
+      </c>
+      <c r="F36">
+        <v>0.08350397852963132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.03301507792470926</v>
+        <v>0.02523756840919222</v>
       </c>
       <c r="C38">
-        <v>-0.02414478517932651</v>
+        <v>0.02424964001848195</v>
       </c>
       <c r="D38">
-        <v>0.0003049706684347293</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02817404118131036</v>
+      </c>
+      <c r="E38">
+        <v>-0.03489449873589708</v>
+      </c>
+      <c r="F38">
+        <v>0.06965861805258533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04203668442695132</v>
+        <v>0.03555200215331757</v>
       </c>
       <c r="C39">
-        <v>-0.06937138670302444</v>
+        <v>0.06734606248450489</v>
       </c>
       <c r="D39">
-        <v>-0.02577136288993719</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05149034846822004</v>
+      </c>
+      <c r="E39">
+        <v>-0.01663291790938788</v>
+      </c>
+      <c r="F39">
+        <v>0.09077616349860333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01990429480448682</v>
+        <v>0.01537365086684736</v>
       </c>
       <c r="C40">
-        <v>-0.02778736886495502</v>
+        <v>0.03711421927211029</v>
       </c>
       <c r="D40">
-        <v>-0.03545908519379404</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04080580213517884</v>
+      </c>
+      <c r="E40">
+        <v>-0.07117252252554443</v>
+      </c>
+      <c r="F40">
+        <v>0.09155489551224676</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01138959968119256</v>
+        <v>0.01819848289189948</v>
       </c>
       <c r="C41">
-        <v>-0.002839227725711478</v>
+        <v>0.004383931429145688</v>
       </c>
       <c r="D41">
-        <v>-0.0003895274127788277</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01822444483948384</v>
+      </c>
+      <c r="E41">
+        <v>-0.03533436750969381</v>
+      </c>
+      <c r="F41">
+        <v>0.07315965126270456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.001005842257528494</v>
+        <v>0.0004283905810131911</v>
       </c>
       <c r="C42">
-        <v>-0.01861681991260858</v>
+        <v>0.009789340707685886</v>
       </c>
       <c r="D42">
-        <v>-0.004674384418144531</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.003571688406296195</v>
+      </c>
+      <c r="E42">
+        <v>-0.004724516385232946</v>
+      </c>
+      <c r="F42">
+        <v>-0.01740495575055099</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03267880066454072</v>
+        <v>0.02937794666979519</v>
       </c>
       <c r="C43">
-        <v>-0.01705260331187307</v>
+        <v>0.01952683052539267</v>
       </c>
       <c r="D43">
-        <v>-0.008111069525085333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04320945229367035</v>
+      </c>
+      <c r="E43">
+        <v>-0.0402843747648015</v>
+      </c>
+      <c r="F43">
+        <v>0.08662338906908117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.02214024795573083</v>
+        <v>0.01415761933837624</v>
       </c>
       <c r="C44">
-        <v>-0.0537428540559599</v>
+        <v>0.04984350263127107</v>
       </c>
       <c r="D44">
-        <v>-0.01726383566504667</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.043089540967482</v>
+      </c>
+      <c r="E44">
+        <v>-0.05718725584390866</v>
+      </c>
+      <c r="F44">
+        <v>0.0953326705934571</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.00252845458037224</v>
+        <v>0.006755138375046633</v>
       </c>
       <c r="C46">
-        <v>-0.01907530775586269</v>
+        <v>0.0232155468378714</v>
       </c>
       <c r="D46">
-        <v>0.01318875656560388</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01537943731262716</v>
+      </c>
+      <c r="E46">
+        <v>-0.03217451159204301</v>
+      </c>
+      <c r="F46">
+        <v>0.1029887727755515</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07758392182704349</v>
+        <v>0.083745828474405</v>
       </c>
       <c r="C47">
-        <v>-0.07278885506980159</v>
+        <v>0.07852643025447249</v>
       </c>
       <c r="D47">
-        <v>0.01113911197201707</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01142024602325625</v>
+      </c>
+      <c r="E47">
+        <v>-0.0513879654094266</v>
+      </c>
+      <c r="F47">
+        <v>0.0804425367872041</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.02007188931075874</v>
+        <v>0.01513350500053995</v>
       </c>
       <c r="C48">
-        <v>-0.01012433695581976</v>
+        <v>0.01572633588065241</v>
       </c>
       <c r="D48">
-        <v>9.498804559504585e-05</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01857042506917797</v>
+      </c>
+      <c r="E48">
+        <v>-0.04293130077754333</v>
+      </c>
+      <c r="F48">
+        <v>0.09687882647592146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08808313094362863</v>
+        <v>0.07037709752061592</v>
       </c>
       <c r="C50">
-        <v>-0.06683115092507665</v>
+        <v>0.06920007105454365</v>
       </c>
       <c r="D50">
-        <v>0.01502200853251662</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0006561935503404308</v>
+      </c>
+      <c r="E50">
+        <v>-0.04857283805856896</v>
+      </c>
+      <c r="F50">
+        <v>0.06846826107581655</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01211594256884598</v>
+        <v>0.00906178911584208</v>
       </c>
       <c r="C51">
-        <v>-0.04633341133779283</v>
+        <v>0.03250197600616163</v>
       </c>
       <c r="D51">
-        <v>-0.0069992923575759</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04886972257106253</v>
+      </c>
+      <c r="E51">
+        <v>-0.01871612447616902</v>
+      </c>
+      <c r="F51">
+        <v>0.0871514159591384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.09366267094114464</v>
+        <v>0.08938284892619257</v>
       </c>
       <c r="C53">
-        <v>-0.07573588225389338</v>
+        <v>0.09039033876570898</v>
       </c>
       <c r="D53">
-        <v>0.03876993206307089</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03895967043724862</v>
+      </c>
+      <c r="E53">
+        <v>-0.05209898460221438</v>
+      </c>
+      <c r="F53">
+        <v>0.08896192704099114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03090867869057155</v>
+        <v>0.02781931740924655</v>
       </c>
       <c r="C54">
-        <v>-0.01559837930191673</v>
+        <v>0.02590702083311578</v>
       </c>
       <c r="D54">
-        <v>-0.006705446262718317</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03532358931233211</v>
+      </c>
+      <c r="E54">
+        <v>-0.03766873896113335</v>
+      </c>
+      <c r="F54">
+        <v>0.09868022728571713</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07358345438051267</v>
+        <v>0.08102445627606943</v>
       </c>
       <c r="C55">
-        <v>-0.06959969231285668</v>
+        <v>0.07444960075527013</v>
       </c>
       <c r="D55">
-        <v>0.0387945953213121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04606562914362259</v>
+      </c>
+      <c r="E55">
+        <v>-0.0433637681193061</v>
+      </c>
+      <c r="F55">
+        <v>0.06478567987297472</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1501321413290844</v>
+        <v>0.1429175615135667</v>
       </c>
       <c r="C56">
-        <v>-0.09452376904215301</v>
+        <v>0.1077455564379114</v>
       </c>
       <c r="D56">
-        <v>0.04033890003173476</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04818606067174894</v>
+      </c>
+      <c r="E56">
+        <v>-0.04900985028146022</v>
+      </c>
+      <c r="F56">
+        <v>0.05455913868329131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.003919248069023192</v>
+        <v>0.001594877081403966</v>
       </c>
       <c r="C57">
-        <v>-0.002851204198714524</v>
+        <v>0.001652514084550265</v>
       </c>
       <c r="D57">
-        <v>-0.01731294556108442</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01571066430184284</v>
+      </c>
+      <c r="E57">
+        <v>-0.007721408930377882</v>
+      </c>
+      <c r="F57">
+        <v>0.01431849900609973</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07368646639785749</v>
+        <v>0.02951046618402955</v>
       </c>
       <c r="C58">
-        <v>-0.03620807972602318</v>
+        <v>0.03244052147642094</v>
       </c>
       <c r="D58">
-        <v>-0.9505430012418407</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.5053792709802333</v>
+      </c>
+      <c r="E58">
+        <v>-0.6835240382933104</v>
+      </c>
+      <c r="F58">
+        <v>-0.4384895519339959</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1332640973964002</v>
+        <v>0.1523259598158579</v>
       </c>
       <c r="C59">
-        <v>0.2057430957682523</v>
+        <v>-0.1848102763466257</v>
       </c>
       <c r="D59">
-        <v>-0.02231402287081919</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02984868610434307</v>
+      </c>
+      <c r="E59">
+        <v>-0.0234625366481864</v>
+      </c>
+      <c r="F59">
+        <v>0.02264839440334921</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3168499927737672</v>
+        <v>0.2795053767547564</v>
       </c>
       <c r="C60">
-        <v>-0.08102396787225891</v>
+        <v>0.1076755406165741</v>
       </c>
       <c r="D60">
-        <v>-0.001096428944429698</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2047486898149588</v>
+      </c>
+      <c r="E60">
+        <v>0.2766017783499269</v>
+      </c>
+      <c r="F60">
+        <v>-0.1258184937737447</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03818114697505973</v>
+        <v>0.03820990062488456</v>
       </c>
       <c r="C61">
-        <v>-0.06071952083244736</v>
+        <v>0.06124317830461738</v>
       </c>
       <c r="D61">
-        <v>-0.01414165690020205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04685441704956999</v>
+      </c>
+      <c r="E61">
+        <v>-0.02255997702406989</v>
+      </c>
+      <c r="F61">
+        <v>0.0819628165882381</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01293289251992265</v>
+        <v>0.01436852175927223</v>
       </c>
       <c r="C63">
-        <v>-0.03673163782110427</v>
+        <v>0.03111939960333335</v>
       </c>
       <c r="D63">
-        <v>0.003111669121288288</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02219179004981311</v>
+      </c>
+      <c r="E63">
+        <v>-0.03676700871396432</v>
+      </c>
+      <c r="F63">
+        <v>0.07651925422876174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05044816663280485</v>
+        <v>0.0530195973144406</v>
       </c>
       <c r="C64">
-        <v>-0.02982459505119898</v>
+        <v>0.05368054208661602</v>
       </c>
       <c r="D64">
-        <v>0.005373945063373381</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01259166730999628</v>
+      </c>
+      <c r="E64">
+        <v>-0.01902416350351695</v>
+      </c>
+      <c r="F64">
+        <v>0.08779237182230808</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09474030780597051</v>
+        <v>0.06595593291099912</v>
       </c>
       <c r="C65">
-        <v>-0.04615125391928569</v>
+        <v>0.04328487373543476</v>
       </c>
       <c r="D65">
-        <v>-0.03187804892115934</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08223627320813129</v>
+      </c>
+      <c r="E65">
+        <v>-0.03430338845418774</v>
+      </c>
+      <c r="F65">
+        <v>0.02518308523850969</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.0660762743752057</v>
+        <v>0.04794050600970422</v>
       </c>
       <c r="C66">
-        <v>-0.1054300522113573</v>
+        <v>0.09141790571995176</v>
       </c>
       <c r="D66">
-        <v>-0.03109293278403912</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07812695195865817</v>
+      </c>
+      <c r="E66">
+        <v>-0.01972927780575417</v>
+      </c>
+      <c r="F66">
+        <v>0.09194579727907821</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05688702720924153</v>
+        <v>0.04784980226092887</v>
       </c>
       <c r="C67">
-        <v>-0.02961898217891</v>
+        <v>0.03091416851342967</v>
       </c>
       <c r="D67">
-        <v>0.009725619134630015</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01573353725508993</v>
+      </c>
+      <c r="E67">
+        <v>-0.01987665815014171</v>
+      </c>
+      <c r="F67">
+        <v>0.05644166966728064</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1152742730011776</v>
+        <v>0.1598374414803978</v>
       </c>
       <c r="C68">
-        <v>0.2865723283979497</v>
+        <v>-0.2507038779733785</v>
       </c>
       <c r="D68">
-        <v>-0.0002763505588380045</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01892767301472235</v>
+      </c>
+      <c r="E68">
+        <v>-0.03872786158500389</v>
+      </c>
+      <c r="F68">
+        <v>0.01709484890070547</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08667694899820753</v>
+        <v>0.08392457987438554</v>
       </c>
       <c r="C69">
-        <v>-0.0672456919868317</v>
+        <v>0.08436091403671254</v>
       </c>
       <c r="D69">
-        <v>0.03637973508146561</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008143100157000266</v>
+      </c>
+      <c r="E69">
+        <v>-0.02468240804040105</v>
+      </c>
+      <c r="F69">
+        <v>0.09458869482760994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1224359398307807</v>
+        <v>0.1503683284728371</v>
       </c>
       <c r="C71">
-        <v>0.246781764596767</v>
+        <v>-0.2285910544463543</v>
       </c>
       <c r="D71">
-        <v>-0.01927094767290053</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01467858689129252</v>
+      </c>
+      <c r="E71">
+        <v>-0.05643879232447205</v>
+      </c>
+      <c r="F71">
+        <v>0.05780803097027978</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.0834274636794448</v>
+        <v>0.09425411566685966</v>
       </c>
       <c r="C72">
-        <v>-0.04761667633193561</v>
+        <v>0.05820943716843102</v>
       </c>
       <c r="D72">
-        <v>0.01843718737920747</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01840690008426495</v>
+      </c>
+      <c r="E72">
+        <v>-0.008973159879265327</v>
+      </c>
+      <c r="F72">
+        <v>0.08125761695506052</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4374721601111501</v>
+        <v>0.3452753775120613</v>
       </c>
       <c r="C73">
-        <v>-0.05724237533830438</v>
+        <v>0.08947887758647836</v>
       </c>
       <c r="D73">
-        <v>-0.06559585851110908</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4232449466755339</v>
+      </c>
+      <c r="E73">
+        <v>0.488053848012894</v>
+      </c>
+      <c r="F73">
+        <v>-0.2993844830698469</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1203867593208969</v>
+        <v>0.1101674481655882</v>
       </c>
       <c r="C74">
-        <v>-0.1159431945673978</v>
+        <v>0.1043045750631584</v>
       </c>
       <c r="D74">
-        <v>0.01858599045517985</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02593377648934871</v>
+      </c>
+      <c r="E74">
+        <v>-0.06755698695371672</v>
+      </c>
+      <c r="F74">
+        <v>0.06277928831482509</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2575704638784755</v>
+        <v>0.2527827115927465</v>
       </c>
       <c r="C75">
-        <v>-0.1323018394442817</v>
+        <v>0.1495616628343419</v>
       </c>
       <c r="D75">
-        <v>0.07299881504642158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1273902762600304</v>
+      </c>
+      <c r="E75">
+        <v>-0.08197937817692516</v>
+      </c>
+      <c r="F75">
+        <v>0.02417304400327869</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1189118958808647</v>
+        <v>0.1257046187520804</v>
       </c>
       <c r="C76">
-        <v>-0.1068268956997423</v>
+        <v>0.1095818422024328</v>
       </c>
       <c r="D76">
-        <v>0.04953707241703528</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05956303878395956</v>
+      </c>
+      <c r="E76">
+        <v>-0.0701873149743133</v>
+      </c>
+      <c r="F76">
+        <v>0.07005761471290459</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07588964615133328</v>
+        <v>0.05960388704017511</v>
       </c>
       <c r="C77">
-        <v>-0.05837680258842666</v>
+        <v>0.06782257705816058</v>
       </c>
       <c r="D77">
-        <v>-0.04651433947332568</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0671499002840955</v>
+      </c>
+      <c r="E77">
+        <v>-0.06171570070550431</v>
+      </c>
+      <c r="F77">
+        <v>0.1207649970659266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04501553391158427</v>
+        <v>0.0383032860267918</v>
       </c>
       <c r="C78">
-        <v>-0.04303365398126376</v>
+        <v>0.05429160873801396</v>
       </c>
       <c r="D78">
-        <v>-0.01600936103099406</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07291504573061147</v>
+      </c>
+      <c r="E78">
+        <v>-0.01436049929059892</v>
+      </c>
+      <c r="F78">
+        <v>0.09598720928757466</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01701539980102479</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0333891721412482</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0536824883767404</v>
+      </c>
+      <c r="E79">
+        <v>-0.0394889328751509</v>
+      </c>
+      <c r="F79">
+        <v>0.03223310352741363</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04790102687683869</v>
+        <v>0.03336651715386567</v>
       </c>
       <c r="C80">
-        <v>-0.05102169626958214</v>
+        <v>0.05195942343836617</v>
       </c>
       <c r="D80">
-        <v>-0.03396831964872142</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0483148613155199</v>
+      </c>
+      <c r="E80">
+        <v>-0.01040525345067248</v>
+      </c>
+      <c r="F80">
+        <v>0.03499767865439268</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1398786460641991</v>
+        <v>0.1380168727972823</v>
       </c>
       <c r="C81">
-        <v>-0.08245319703213073</v>
+        <v>0.101011397822354</v>
       </c>
       <c r="D81">
-        <v>0.03399250804951238</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09168229641965821</v>
+      </c>
+      <c r="E81">
+        <v>-0.08290034448532659</v>
+      </c>
+      <c r="F81">
+        <v>0.02961645440258434</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.07185082926969458</v>
+        <v>0.1892350172103994</v>
       </c>
       <c r="C82">
-        <v>-0.0471123844377669</v>
+        <v>0.1439799318420341</v>
       </c>
       <c r="D82">
-        <v>0.02925056977094792</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2245045746349887</v>
+      </c>
+      <c r="E82">
+        <v>-0.01718619350347363</v>
+      </c>
+      <c r="F82">
+        <v>0.08236013500078394</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02568143219662141</v>
+        <v>0.02596266494435548</v>
       </c>
       <c r="C83">
-        <v>-0.02092239867968844</v>
+        <v>0.03751569737440563</v>
       </c>
       <c r="D83">
-        <v>-0.01701434909724246</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03392360315774121</v>
+      </c>
+      <c r="E83">
+        <v>-0.006648327384182133</v>
+      </c>
+      <c r="F83">
+        <v>0.05277610044645194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2375543699486445</v>
+        <v>0.2027833015743608</v>
       </c>
       <c r="C85">
-        <v>-0.1173701282656507</v>
+        <v>0.1321353535931141</v>
       </c>
       <c r="D85">
-        <v>0.1375600387894593</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1052813770669752</v>
+      </c>
+      <c r="E85">
+        <v>-0.005650880308677534</v>
+      </c>
+      <c r="F85">
+        <v>-0.01585315791653422</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.008496572536938547</v>
+        <v>0.01159056574727497</v>
       </c>
       <c r="C86">
-        <v>-0.02028035686409419</v>
+        <v>0.02840330419214343</v>
       </c>
       <c r="D86">
-        <v>-0.03517628706207394</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07825736068174408</v>
+      </c>
+      <c r="E86">
+        <v>-0.04343560973148054</v>
+      </c>
+      <c r="F86">
+        <v>0.1460417076914186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01675330266749821</v>
+        <v>0.01821482320316076</v>
       </c>
       <c r="C87">
-        <v>-0.02315405648100322</v>
+        <v>0.01945949344389346</v>
       </c>
       <c r="D87">
-        <v>-0.07387182266664068</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09081108863926474</v>
+      </c>
+      <c r="E87">
+        <v>-0.079916370824536</v>
+      </c>
+      <c r="F87">
+        <v>0.09241100207129531</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1048623835354407</v>
+        <v>0.08707871001624269</v>
       </c>
       <c r="C88">
-        <v>-0.07076240924245321</v>
+        <v>0.06491196693189691</v>
       </c>
       <c r="D88">
-        <v>0.01433253815300955</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01300515678153623</v>
+      </c>
+      <c r="E88">
+        <v>-0.02861864376129763</v>
+      </c>
+      <c r="F88">
+        <v>0.07073624292183152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1881272002474114</v>
+        <v>0.233198201825543</v>
       </c>
       <c r="C89">
-        <v>0.3766035084322099</v>
+        <v>-0.3758578606336029</v>
       </c>
       <c r="D89">
-        <v>0.03432421819636145</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01960507971051404</v>
+      </c>
+      <c r="E89">
+        <v>-0.03191039091974849</v>
+      </c>
+      <c r="F89">
+        <v>0.09789263578743722</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1757431829894947</v>
+        <v>0.2118871508759993</v>
       </c>
       <c r="C90">
-        <v>0.3487222966290542</v>
+        <v>-0.3140078627896469</v>
       </c>
       <c r="D90">
-        <v>-0.003045952651221929</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01410416425630481</v>
+      </c>
+      <c r="E90">
+        <v>-0.06098748457832114</v>
+      </c>
+      <c r="F90">
+        <v>0.04979011199231762</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.2013168727383417</v>
+        <v>0.1870298131161544</v>
       </c>
       <c r="C91">
-        <v>-0.1168285778971915</v>
+        <v>0.144474116956392</v>
       </c>
       <c r="D91">
-        <v>0.06296020996251137</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1012870459166472</v>
+      </c>
+      <c r="E91">
+        <v>-0.07478880365632409</v>
+      </c>
+      <c r="F91">
+        <v>0.04787425316847667</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1675441632375745</v>
+        <v>0.1911972220112704</v>
       </c>
       <c r="C92">
-        <v>0.2833098892491936</v>
+        <v>-0.2713455840627271</v>
       </c>
       <c r="D92">
-        <v>0.01372046813418716</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.007651914273399671</v>
+      </c>
+      <c r="E92">
+        <v>-0.06836907717855291</v>
+      </c>
+      <c r="F92">
+        <v>0.0714628995810692</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1966291537645956</v>
+        <v>0.2363928922118471</v>
       </c>
       <c r="C93">
-        <v>0.3442473641860851</v>
+        <v>-0.3151903803221355</v>
       </c>
       <c r="D93">
-        <v>-0.01100581373350242</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.001265850092766505</v>
+      </c>
+      <c r="E93">
+        <v>-0.04793249987986795</v>
+      </c>
+      <c r="F93">
+        <v>0.0422378246877787</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.2922364878403973</v>
+        <v>0.3359722094870941</v>
       </c>
       <c r="C94">
-        <v>-0.1565754422412841</v>
+        <v>0.2043778232013632</v>
       </c>
       <c r="D94">
-        <v>0.104559120654383</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.466867672265784</v>
+      </c>
+      <c r="E94">
+        <v>-0.1708539298284413</v>
+      </c>
+      <c r="F94">
+        <v>-0.4378350165997994</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09647666480003463</v>
+        <v>0.08097297602118532</v>
       </c>
       <c r="C95">
-        <v>-0.07295806027499059</v>
+        <v>0.07435946878023728</v>
       </c>
       <c r="D95">
-        <v>-0.04394803064462243</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1513892289948459</v>
+      </c>
+      <c r="E95">
+        <v>0.1426615835027399</v>
+      </c>
+      <c r="F95">
+        <v>0.2015535724761839</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2068526137885385</v>
+        <v>0.1885483239376029</v>
       </c>
       <c r="C98">
-        <v>-0.01747022253054078</v>
+        <v>0.04495914389560992</v>
       </c>
       <c r="D98">
-        <v>-0.03298273216310117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1725406221285911</v>
+      </c>
+      <c r="E98">
+        <v>0.1536325942724926</v>
+      </c>
+      <c r="F98">
+        <v>-0.04281560150207487</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01343251037957721</v>
+        <v>0.005730667187477825</v>
       </c>
       <c r="C101">
-        <v>-0.02490763158954197</v>
+        <v>0.02538613115713124</v>
       </c>
       <c r="D101">
-        <v>0.01343866042869599</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02127323333049777</v>
+      </c>
+      <c r="E101">
+        <v>-0.02876911986791089</v>
+      </c>
+      <c r="F101">
+        <v>0.08774609910701626</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1207184570811052</v>
+        <v>0.1199494915092133</v>
       </c>
       <c r="C102">
-        <v>-0.07820248131061533</v>
+        <v>0.1033459228915508</v>
       </c>
       <c r="D102">
-        <v>0.04932406037027801</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05050006295040005</v>
+      </c>
+      <c r="E102">
+        <v>0.01099932175403826</v>
+      </c>
+      <c r="F102">
+        <v>0.03911256034669645</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
